--- a/storage/laporan-kinerja-2022.xlsx
+++ b/storage/laporan-kinerja-2022.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">JUMLAH DANA TERSEDIA </t>
   </si>
   <si>
-    <t>1,668,190,000</t>
+    <t>1,638,190,000</t>
   </si>
   <si>
     <t>521,867,993</t>
@@ -107,10 +107,10 @@
     <t>391,400,995</t>
   </si>
   <si>
-    <t>917,819,380</t>
-  </si>
-  <si>
-    <t>229,454,845</t>
+    <t>907,160,380</t>
+  </si>
+  <si>
+    <t>226,790,095</t>
   </si>
   <si>
     <t>1,234,379,140</t>
@@ -119,10 +119,10 @@
     <t>4,342,256,513</t>
   </si>
   <si>
-    <t>2,289,045,840</t>
-  </si>
-  <si>
-    <t>Kolektibilitas = 4,342,256,513 / 2289045839.75 = 52.72 %</t>
+    <t>2,256,381,090</t>
+  </si>
+  <si>
+    <t>Kolektibilitas = 4,342,256,513 / 2256381089.75 = 51.96 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 2.00</t>

--- a/storage/laporan-kinerja-2022.xlsx
+++ b/storage/laporan-kinerja-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>LAPORAN KINERJA</t>
   </si>
@@ -47,58 +47,61 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>Aug 2022</t>
+  </si>
+  <si>
+    <t>Prosen (%)</t>
+  </si>
+  <si>
+    <t>Timbang (Rp)</t>
+  </si>
+  <si>
+    <t>2. EFFEKTIVITAS PENYALURAN DANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 DANA YANG DISALURKAN </t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Penyaluran Pinjaman</t>
+  </si>
+  <si>
+    <t>Dana Pembinaan Kemitraan</t>
+  </si>
+  <si>
+    <t>JUMLAH DANA YG DISALURKAN</t>
+  </si>
+  <si>
+    <t>Sep 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skor : 100-90 =&gt; 3 , 90-85 =&gt; 2, 85-80 =&gt; 1 </t>
+  </si>
+  <si>
+    <t>Saldo Awal</t>
+  </si>
+  <si>
+    <t>Jasa Administrasi Pinjaman</t>
+  </si>
+  <si>
+    <t>Jasa Giro</t>
+  </si>
+  <si>
+    <t>Pendapatan Lain</t>
+  </si>
+  <si>
+    <t>Pengembalian Pinjaman Pokok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMLAH DANA TERSEDIA </t>
+  </si>
+  <si>
     <t>Jul 2022</t>
   </si>
   <si>
-    <t>Prosen (%)</t>
-  </si>
-  <si>
-    <t>Timbang (Rp)</t>
-  </si>
-  <si>
-    <t>2. EFFEKTIVITAS PENYALURAN DANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 DANA YANG DISALURKAN </t>
-  </si>
-  <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
-    <t>Penyaluran Pinjaman</t>
-  </si>
-  <si>
-    <t>Dana Pembinaan Kemitraan</t>
-  </si>
-  <si>
-    <t>JUMLAH DANA YG DISALURKAN</t>
-  </si>
-  <si>
-    <t>Aug 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skor : 100-90 =&gt; 3 , 90-85 =&gt; 2, 85-80 =&gt; 1 </t>
-  </si>
-  <si>
-    <t>Saldo Awal</t>
-  </si>
-  <si>
-    <t>Jasa Administrasi Pinjaman</t>
-  </si>
-  <si>
-    <t>Jasa Giro</t>
-  </si>
-  <si>
-    <t>Pendapatan Lain</t>
-  </si>
-  <si>
-    <t>Pengembalian Pinjaman Pokok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMLAH DANA TERSEDIA </t>
-  </si>
-  <si>
-    <t>1,638,190,000</t>
+    <t>1,668,190,000</t>
   </si>
   <si>
     <t>521,867,993</t>
@@ -107,10 +110,10 @@
     <t>391,400,995</t>
   </si>
   <si>
-    <t>907,160,380</t>
-  </si>
-  <si>
-    <t>226,790,095</t>
+    <t>917,819,380</t>
+  </si>
+  <si>
+    <t>229,454,845</t>
   </si>
   <si>
     <t>1,234,379,140</t>
@@ -119,37 +122,31 @@
     <t>4,342,256,513</t>
   </si>
   <si>
-    <t>2,256,381,090</t>
-  </si>
-  <si>
-    <t>Kolektibilitas = 4,342,256,513 / 2256381089.75 = 51.96 %</t>
+    <t>2,289,045,840</t>
+  </si>
+  <si>
+    <t>Kolektibilitas = 4,342,256,513 / 2289045839.75 = 52.72 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 2.00</t>
   </si>
   <si>
-    <t>675,000,000</t>
-  </si>
-  <si>
-    <t>326,700,530</t>
-  </si>
-  <si>
-    <t>107,621,860</t>
-  </si>
-  <si>
-    <t>4,185,018</t>
-  </si>
-  <si>
-    <t>-1,422,503</t>
-  </si>
-  <si>
-    <t>1,230,851,327</t>
-  </si>
-  <si>
-    <t>1,667,936,232</t>
-  </si>
-  <si>
-    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1667936232.30 / 2582610530.00 = 40.47 %</t>
+    <t>992,936,232</t>
+  </si>
+  <si>
+    <t>15,279,664</t>
+  </si>
+  <si>
+    <t>487,410</t>
+  </si>
+  <si>
+    <t>194,074,503</t>
+  </si>
+  <si>
+    <t>1,531,524,916</t>
+  </si>
+  <si>
+    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1531524916.07 / 2582610530.00 = 0.00 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 0.00</t>
@@ -559,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -593,13 +590,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -610,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -627,23 +624,23 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -674,8 +671,8 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -696,8 +693,8 @@
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -713,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -756,8 +753,8 @@
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
-        <v>41</v>
+      <c r="C30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -768,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -779,17 +776,17 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-kinerja-2022.xlsx
+++ b/storage/laporan-kinerja-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>LAPORAN KINERJA</t>
   </si>
@@ -101,52 +101,58 @@
     <t>Jul 2022</t>
   </si>
   <si>
-    <t>1,668,190,000</t>
-  </si>
-  <si>
-    <t>521,867,993</t>
-  </si>
-  <si>
-    <t>391,400,995</t>
-  </si>
-  <si>
-    <t>917,819,380</t>
-  </si>
-  <si>
-    <t>229,454,845</t>
-  </si>
-  <si>
-    <t>1,234,379,140</t>
-  </si>
-  <si>
-    <t>4,342,256,513</t>
-  </si>
-  <si>
-    <t>2,289,045,840</t>
-  </si>
-  <si>
-    <t>Kolektibilitas = 4,342,256,513 / 2289045839.75 = 52.72 %</t>
+    <t>1,928,838,500</t>
+  </si>
+  <si>
+    <t>479,449,993</t>
+  </si>
+  <si>
+    <t>359,587,495</t>
+  </si>
+  <si>
+    <t>977,393,380</t>
+  </si>
+  <si>
+    <t>244,348,345</t>
+  </si>
+  <si>
+    <t>1,442,604,640</t>
+  </si>
+  <si>
+    <t>4,828,286,513</t>
+  </si>
+  <si>
+    <t>2,532,774,340</t>
+  </si>
+  <si>
+    <t>Kolektibilitas = 4,828,286,513 / 2532774339.75 = 52.46 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 2.00</t>
   </si>
   <si>
-    <t>992,936,232</t>
-  </si>
-  <si>
-    <t>15,279,664</t>
-  </si>
-  <si>
-    <t>487,410</t>
-  </si>
-  <si>
-    <t>194,074,503</t>
-  </si>
-  <si>
-    <t>1,531,524,916</t>
-  </si>
-  <si>
-    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1531524916.07 / 2582610530.00 = 0.00 %</t>
+    <t>1,010,000,000</t>
+  </si>
+  <si>
+    <t>326,700,530</t>
+  </si>
+  <si>
+    <t>126,070,360</t>
+  </si>
+  <si>
+    <t>4,887,996</t>
+  </si>
+  <si>
+    <t>-1,289,598</t>
+  </si>
+  <si>
+    <t>1,399,821,327</t>
+  </si>
+  <si>
+    <t>1,856,190,615</t>
+  </si>
+  <si>
+    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1856190614.63 / 2582610530.00 = 54.41 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 0.00</t>
@@ -671,8 +677,8 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -693,8 +699,8 @@
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -721,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -732,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -743,7 +749,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -753,8 +759,8 @@
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -765,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -776,17 +782,17 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-kinerja-2022.xlsx
+++ b/storage/laporan-kinerja-2022.xlsx
@@ -47,7 +47,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Aug 2022</t>
+    <t>Sep 2022</t>
   </si>
   <si>
     <t>Prosen (%)</t>
@@ -74,7 +74,7 @@
     <t>JUMLAH DANA YG DISALURKAN</t>
   </si>
   <si>
-    <t>Sep 2022</t>
+    <t>Oct 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Skor : 100-90 =&gt; 3 , 90-85 =&gt; 2, 85-80 =&gt; 1 </t>
@@ -101,58 +101,58 @@
     <t>Jul 2022</t>
   </si>
   <si>
-    <t>1,928,838,500</t>
-  </si>
-  <si>
-    <t>479,449,993</t>
-  </si>
-  <si>
-    <t>359,587,495</t>
-  </si>
-  <si>
-    <t>977,393,380</t>
-  </si>
-  <si>
-    <t>244,348,345</t>
-  </si>
-  <si>
-    <t>1,442,604,640</t>
-  </si>
-  <si>
-    <t>4,828,286,513</t>
-  </si>
-  <si>
-    <t>2,532,774,340</t>
-  </si>
-  <si>
-    <t>Kolektibilitas = 4,828,286,513 / 2532774339.75 = 52.46 %</t>
+    <t>1,929,693,500</t>
+  </si>
+  <si>
+    <t>448,029,000</t>
+  </si>
+  <si>
+    <t>336,021,750</t>
+  </si>
+  <si>
+    <t>1,024,203,873</t>
+  </si>
+  <si>
+    <t>256,050,968</t>
+  </si>
+  <si>
+    <t>1,291,025,515</t>
+  </si>
+  <si>
+    <t>4,692,951,888</t>
+  </si>
+  <si>
+    <t>2,521,766,218</t>
+  </si>
+  <si>
+    <t>Kolektibilitas = 4,692,951,888 / 2521766218.25 = 53.74 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 2.00</t>
   </si>
   <si>
-    <t>1,010,000,000</t>
+    <t>1,320,000,000</t>
   </si>
   <si>
     <t>326,700,530</t>
   </si>
   <si>
-    <t>126,070,360</t>
-  </si>
-  <si>
-    <t>4,887,996</t>
-  </si>
-  <si>
-    <t>-1,289,598</t>
-  </si>
-  <si>
-    <t>1,399,821,327</t>
-  </si>
-  <si>
-    <t>1,856,190,615</t>
-  </si>
-  <si>
-    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1856190614.63 / 2582610530.00 = 54.41 %</t>
+    <t>141,498,235</t>
+  </si>
+  <si>
+    <t>5,618,783</t>
+  </si>
+  <si>
+    <t>-1,662,255</t>
+  </si>
+  <si>
+    <t>1,525,155,952</t>
+  </si>
+  <si>
+    <t>1,997,311,245</t>
+  </si>
+  <si>
+    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1997311244.53 / 2582610530.00 = 66.09 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 0.00</t>

--- a/storage/laporan-kinerja-2022.xlsx
+++ b/storage/laporan-kinerja-2022.xlsx
@@ -47,7 +47,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Sep 2022</t>
+    <t>Juni 2022</t>
   </si>
   <si>
     <t>Prosen (%)</t>
@@ -101,58 +101,58 @@
     <t>Jul 2022</t>
   </si>
   <si>
-    <t>1,929,693,500</t>
-  </si>
-  <si>
-    <t>448,029,000</t>
-  </si>
-  <si>
-    <t>336,021,750</t>
-  </si>
-  <si>
-    <t>1,024,203,873</t>
-  </si>
-  <si>
-    <t>256,050,968</t>
-  </si>
-  <si>
-    <t>1,291,025,515</t>
-  </si>
-  <si>
-    <t>4,692,951,888</t>
-  </si>
-  <si>
-    <t>2,521,766,218</t>
-  </si>
-  <si>
-    <t>Kolektibilitas = 4,692,951,888 / 2521766218.25 = 53.74 %</t>
+    <t>1,823,310,500</t>
+  </si>
+  <si>
+    <t>1,334,159,493</t>
+  </si>
+  <si>
+    <t>1,000,619,620</t>
+  </si>
+  <si>
+    <t>77,503,880</t>
+  </si>
+  <si>
+    <t>19,375,970</t>
+  </si>
+  <si>
+    <t>1,277,870,640</t>
+  </si>
+  <si>
+    <t>4,512,844,513</t>
+  </si>
+  <si>
+    <t>2,843,306,090</t>
+  </si>
+  <si>
+    <t>Kolektibilitas = 4,512,844,513 / 2843306090.00 = 61.58 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 2.00</t>
   </si>
   <si>
-    <t>1,320,000,000</t>
+    <t>675,000,000</t>
   </si>
   <si>
     <t>326,700,530</t>
   </si>
   <si>
-    <t>141,498,235</t>
-  </si>
-  <si>
-    <t>5,618,783</t>
-  </si>
-  <si>
-    <t>-1,662,255</t>
-  </si>
-  <si>
-    <t>1,525,155,952</t>
-  </si>
-  <si>
-    <t>1,997,311,245</t>
-  </si>
-  <si>
-    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1997311244.53 / 2582610530.00 = 66.09 %</t>
+    <t>91,916,860</t>
+  </si>
+  <si>
+    <t>3,463,562</t>
+  </si>
+  <si>
+    <t>-1,051,712</t>
+  </si>
+  <si>
+    <t>1,059,963,327</t>
+  </si>
+  <si>
+    <t>1,480,992,567</t>
+  </si>
+  <si>
+    <t>Jumlah Dana Yg Disalurkan/Jumlah Dana Tersedia= 1480992567.24 / 2582610530.00 = 45.58 %</t>
   </si>
   <si>
     <t>SKOR -&gt; 0.00</t>
